--- a/biology/Botanique/Delonix_elata/Delonix_elata.xlsx
+++ b/biology/Botanique/Delonix_elata/Delonix_elata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delonix elata est une espèce de plantes à fleurs dicotylédones de la famille des Fabaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Delonix elata est un arbre qui pousse principalement dans le biome du désert ou des zones arbustives sèches.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition indigène de cette espèce s'étend du Soudan à la Tanzanie, au sud de la péninsule arabique. On le trouve dans les pays suivants[1] : Arabie saoudite, Djibouti, Égypte, Éthiopie, Kenya, Ouganda, Somalie, Soudan, Tanzanie et Yémen.
-La présence de ce taxon est incertaine en république démocratique du Congo[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition indigène de cette espèce s'étend du Soudan à la Tanzanie, au sud de la péninsule arabique. On le trouve dans les pays suivants : Arabie saoudite, Djibouti, Égypte, Éthiopie, Kenya, Ouganda, Somalie, Soudan, Tanzanie et Yémen.
+La présence de ce taxon est incertaine en république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Delonix elata (L.) Gamble[2].
-L'espèce a été initialement classée dans le genre Poinciana sous le basionyme Poinciana elata L.[2].
-Cette espèce porte les noms communs en anglais de White gul mohur, Creamy peacock flower et Yellow gul mohur[3].
-Delonix elata a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Delonix elata (L.) Gamble.
+L'espèce a été initialement classée dans le genre Poinciana sous le basionyme Poinciana elata L..
+Cette espèce porte les noms communs en anglais de White gul mohur, Creamy peacock flower et Yellow gul mohur.
+Delonix elata a pour synonymes :
 Caesalpinia elata (L.) Sw.
 Poinciana elata L.
 Poinciana playfairii T.Anderson</t>
